--- a/sources/stock.xlsx
+++ b/sources/stock.xlsx
@@ -16,11 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
     <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="166"/>
-    <numFmt formatCode="YYYY-MM-DD" numFmtId="167"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -55,24 +53,90 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -365,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -855,7 +919,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="2" t="n">
         <v>44230</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -882,6 +946,37 @@
         <v>14</v>
       </c>
       <c r="I16" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44336.65073103703</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>66</v>
+      </c>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-38</v>
+      </c>
+      <c r="G17" t="n">
+        <v>17</v>
+      </c>
+      <c r="H17" t="n">
+        <v>14</v>
+      </c>
+      <c r="I17" t="n">
         <v>52</v>
       </c>
     </row>

--- a/sources/stock.xlsx
+++ b/sources/stock.xlsx
@@ -16,9 +16,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt formatCode="yyyy-mm-dd h:mm:ss" numFmtId="164"/>
     <numFmt formatCode="YYYY-MM-DD HH:MM:SS" numFmtId="165"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="166"/>
+    <numFmt formatCode="YYYY-MM-DD" numFmtId="167"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,12 +60,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="167" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -951,7 +954,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>44336.65073103703</v>
+        <v>44336.65073104166</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -978,6 +981,130 @@
       </c>
       <c r="I17" t="n">
         <v>52</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44337</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>66</v>
+      </c>
+      <c r="D18" t="n">
+        <v>16</v>
+      </c>
+      <c r="E18" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-38</v>
+      </c>
+      <c r="G18" t="n">
+        <v>17</v>
+      </c>
+      <c r="H18" t="n">
+        <v>14</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44337</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>66</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>26</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-92</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>12</v>
+      </c>
+      <c r="I19" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44337</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>66</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-16</v>
+      </c>
+      <c r="E20" t="n">
+        <v>22</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-146</v>
+      </c>
+      <c r="G20" t="n">
+        <v>3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+      <c r="I20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="n">
+        <v>44338</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>66</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-32</v>
+      </c>
+      <c r="E21" t="n">
+        <v>18</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-200</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>-17</v>
       </c>
     </row>
   </sheetData>
